--- a/Files/demographic_pca.xlsx
+++ b/Files/demographic_pca.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3551707882428473</v>
+        <v>-0.3551707877185219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3309289999810216</v>
+        <v>0.3309290034432869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1357932221772313</v>
+        <v>0.1357936041306777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06561942913576983</v>
+        <v>0.06559983336852679</v>
       </c>
     </row>
     <row r="3">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.8363621325053934</v>
+        <v>-0.8363621319867472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3374123880085946</v>
+        <v>0.3374123827944999</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08660979487546677</v>
+        <v>-0.08660961873298782</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1458631499225425</v>
+        <v>-0.1458699341423294</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3631528497342701</v>
+        <v>0.3631528500888902</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2068930504673</v>
+        <v>-0.2068930501714083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1286104382052951</v>
+        <v>0.1286105224588112</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3494065239204669</v>
+        <v>-0.3494029857183761</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.5982532274642074</v>
+        <v>0.5982532276116911</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3170466351761435</v>
+        <v>-0.3170466347861214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15261295163299</v>
+        <v>0.1526129889600649</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4792131765472138</v>
+        <v>-0.4792115317368918</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.7236782496668909</v>
+        <v>0.7236782496885217</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3495330829371723</v>
+        <v>-0.3495330837594584</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1232410231130509</v>
+        <v>0.1232410614585505</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4228884585180965</v>
+        <v>-0.4228928228177335</v>
       </c>
     </row>
     <row r="7">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.8681419013541347</v>
+        <v>0.8681419014628066</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3625633477433023</v>
+        <v>-0.3625633479101736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1529629520784823</v>
+        <v>0.1529629989619011</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.09255928649498599</v>
+        <v>-0.09256078494914327</v>
       </c>
     </row>
     <row r="8">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.8412784600560789</v>
+        <v>0.8412784600578528</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4054813247967586</v>
+        <v>-0.4054813253990132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1732715047099029</v>
+        <v>0.1732714936826199</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1593913904157285</v>
+        <v>0.1593920402211718</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.8536099417153165</v>
+        <v>-0.8536099418651647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3557052474632357</v>
+        <v>0.3557052491784235</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1466514364566719</v>
+        <v>-0.1466514850078401</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3036632762241487</v>
+        <v>-0.3036612934473726</v>
       </c>
     </row>
     <row r="10">
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1279971912495848</v>
+        <v>0.1279971896723688</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3287583409601018</v>
+        <v>-0.3287583205153982</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08109128759239159</v>
+        <v>-0.08109173442830026</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03078944751430011</v>
+        <v>-0.03077324603900185</v>
       </c>
     </row>
     <row r="11">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1016489232776568</v>
+        <v>0.1016489218453303</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3001663289926422</v>
+        <v>-0.3001663144061094</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1735052022308309</v>
+        <v>-0.1735056745115924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01384212870037451</v>
+        <v>0.01385949497697186</v>
       </c>
     </row>
     <row r="12">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.6645729380667142</v>
+        <v>-0.6645729380611824</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4003742229631189</v>
+        <v>-0.4003742230803783</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.6056717636212517</v>
+        <v>0.6056717646415741</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02293377398930009</v>
+        <v>0.02293372872521047</v>
       </c>
     </row>
     <row r="13">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3538859613638974</v>
+        <v>0.3538859610292637</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.5401543624204128</v>
+        <v>0.5401543599966409</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09532375066480528</v>
+        <v>0.09532350644066918</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05086623335890122</v>
+        <v>-0.05085403075275857</v>
       </c>
     </row>
     <row r="14">
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.5392787671453594</v>
+        <v>0.5392787672776458</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1344584541699468</v>
+        <v>-0.1344584550318532</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.7725490722604121</v>
+        <v>-0.7725490171161434</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09557346606063363</v>
+        <v>-0.09557580245743912</v>
       </c>
     </row>
     <row r="15">
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09051742093744246</v>
+        <v>0.09051741910533918</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.4567288970070758</v>
+        <v>0.4567289014671995</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0918131115176051</v>
+        <v>-0.09181403596497972</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1166786066078005</v>
+        <v>-0.1166369662647889</v>
       </c>
     </row>
     <row r="16">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05038145509183714</v>
+        <v>0.0503814551674826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01109749129581277</v>
+        <v>0.01109749164325089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02414172268031619</v>
+        <v>0.02414177737155424</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01052683740496669</v>
+        <v>-0.01052979089643791</v>
       </c>
     </row>
     <row r="17">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3030622277123918</v>
+        <v>0.3030622290613279</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.5150708935026254</v>
+        <v>0.5150708967140337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04953689899725904</v>
+        <v>0.04953772288004056</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003873788746107655</v>
+        <v>0.00383473922350856</v>
       </c>
     </row>
     <row r="18">
@@ -779,16 +779,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4383581119049092</v>
+        <v>-0.4383581120574978</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.7949317704778474</v>
+        <v>-0.7949317698723992</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2773459199299387</v>
+        <v>-0.2773459930551087</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01783617151753953</v>
+        <v>0.01783945222799679</v>
       </c>
     </row>
     <row r="19">
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4418549364632182</v>
+        <v>0.4418549363916233</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.7458257345034177</v>
+        <v>0.7458257346070263</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3022783681487839</v>
+        <v>0.3022783298630586</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1517073525065387</v>
+        <v>-0.1517055601469121</v>
       </c>
     </row>
     <row r="20">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.561524731802069</v>
+        <v>-0.5615247317024128</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.7266349440803762</v>
+        <v>-0.7266349445766809</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.159503187706822</v>
+        <v>-0.1595031427555744</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.03803287395036212</v>
+        <v>-0.0380348161828063</v>
       </c>
     </row>
     <row r="21">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0524635809059516</v>
+        <v>-0.05246358148975782</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2585143905168451</v>
+        <v>-0.2585143873971739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02404593246511891</v>
+        <v>0.02404567030741708</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3972521310288524</v>
+        <v>-0.3972405604945621</v>
       </c>
     </row>
     <row r="22">
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02025283272251898</v>
+        <v>-0.02025283344380414</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3247758607016963</v>
+        <v>-0.324775855075716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09143422936207829</v>
+        <v>0.09143394919738279</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4007590445670614</v>
+        <v>-0.4007476183357435</v>
       </c>
     </row>
     <row r="23">
@@ -874,16 +874,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1036429668003194</v>
+        <v>0.1036429669523971</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3460332276019049</v>
+        <v>-0.3460332287094098</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2293952426170025</v>
+        <v>0.2293953079952398</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4734362345364647</v>
+        <v>-0.4734394164381361</v>
       </c>
     </row>
     <row r="24">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05189572135568425</v>
+        <v>0.05189572145782319</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2434436014156899</v>
+        <v>-0.2434436026650348</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2065400572181187</v>
+        <v>0.2065400855744932</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4139263528489528</v>
+        <v>-0.4139271711632105</v>
       </c>
     </row>
   </sheetData>

--- a/Files/demographic_pca.xlsx
+++ b/Files/demographic_pca.xlsx
@@ -7,7 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="home_structures" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="population" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ethnicity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="age" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="households" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="marriage" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="structure" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="home_value" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="housing_units" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="families" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="renters" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="income" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mobility" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="transportation" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="labor_force" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="occupation" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="employment" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="employer" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="education" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="military" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="ancestry" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="language" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vehicles" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="home_structures" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -71,8 +93,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,6 +460,4088 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>POP901</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.006780721851635568</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01021853185795095</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.9931048302234102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>POP902</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0255574964857732</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.005121207623092791</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.9924068654097101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>POP903</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.005030500853738823</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01384262153358107</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.9896447628101026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>POP90C1</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>-0.9849823734888933</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1620608953038505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.008173158401407359</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>POP90C2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4007187268356386</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.9114520036780498</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01138770673681445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>POP90C3</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.8478106204874679</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>-0.5254875678396869</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.009363723110887498</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>POP90C4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06626761036223104</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1426053865719467</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1094335322608217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>POP90C5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.126529165059565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07648903026744476</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07390708220184478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HUPA4</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1953649817889276</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1027386049720948</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HUPA5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.05449259167647801</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3439208721715016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HUPA6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2323122531831317</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.5386985650763362</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HUPA7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3875274029586749</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.07686315577956693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RP1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.9059858952567869</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3766747035864273</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RP2</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.9789327703762654</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1315264928052906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RP3</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.9531020726128603</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2400429172092356</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RP4</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.8189973838414526</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.4696971556066047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4209630356913897</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.8998933523018495</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.0282194831273124</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1067171647528432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IC1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.9200374571745228</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09685378043962682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1162687492872497</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.200818231966915</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IC2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.913328267680493</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09989944915054154</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2174735835419944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.178110966045666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>IC3</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.9365612235796449</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1025124753330311</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1649379844264136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1979669229208059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IC4</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.9239336105945412</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1086489347737611</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2427035577564771</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1636895735476188</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IC5</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.7659073697489409</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1110671706437499</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3972768765730536</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1178253411860032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>IC6</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>-0.8477145942965129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1166521123686708</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3855981639522879</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1347113631247882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IC7</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>-0.6690887022420455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001765445125633986</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0496977036323658</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3113746646670382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IC8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.306226350161958</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0555943231076542</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.2891253597224232</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4363888435639822</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>IC9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2953995983623823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06817510061629209</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>-0.5678044770089261</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.3898186947118113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>IC10</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.7731725486660544</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05089431395876971</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.289594697145574</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03097398860354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>IC11</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.7826812513781904</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02941620487454685</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1275073736213268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2491840521046981</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>IC12</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.698878762734982</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.04975348343206049</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3494342847467952</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3238825414451126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>IC13</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.5768482063775505</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05807828035123173</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3463338992233184</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2739776677900628</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>IC14</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.5471326594299728</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09210393603878678</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.4705528447413934</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3146679006663669</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>IC15</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>-0.8186718186546843</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1517085117353738</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2916693644872175</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2994665205097469</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>IC16</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>-0.716955501540529</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.01491252553871595</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.09175919909896869</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.2402744032341404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>IC17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.4396540474103249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05549874474061095</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.1790139683837035</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.4352934566582177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>IC18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1314055747385606</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0793644867739448</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>-0.5037619676700683</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>-0.4801780712816804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>IC19</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.7341907715792447</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04867439986061663</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2691264753109167</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.02924292594557612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>IC20</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.7592544678926509</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02883010437336638</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1554296040349607</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2151987298536824</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>IC21</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.6708861685950278</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.04875130505579618</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3687761420720434</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3013384538966939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>IC22</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.5413124563973677</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05653348084261381</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3494114284394724</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2455730737389741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>IC23</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.5291931295506672</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08669979236805883</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.4781129357420959</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2987650560248064</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>HHAS1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.3182331406706734</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05411560170568114</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.6606873572806538</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>-0.5744602790360603</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>HHAS2</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>-0.5639502571401533</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2867589040021483</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1841706387545612</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2869304233947201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>HHAS3</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0.7602174580710385</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2038910233405628</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.356037888676543</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.3812598704593118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>HHAS4</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>-0.736898695366237</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1747963250239755</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2593153490825521</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.392025332809781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.9487424851987334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1564299917988333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007762284706072611</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.9460356058188197</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.105925529073232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2023941443354293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MC3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.7434416653828327</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02969682359198216</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.6174037411415996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PEC1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.02872509878786991</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1009894518028394</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4474137151401444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEC2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1830743081129623</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.9828998429135877</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01393632278926291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>TPE1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3870808533570249</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>-0.9037194018048933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1195147563417492</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TPE2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.05889970651793813</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.458236254644956</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1291554983966941</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TPE3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1080677188031772</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.6332561433122884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.02957583484923485</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TPE4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.09502419196909197</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.6045245819493198</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1044198509000953</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TPE5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.09395631349373156</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3008488005573646</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1410268780797528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TPE6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05135789168176236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1529437234391051</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003774479425947492</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TPE7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01659227841574121</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06277914702531683</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.01957222098079814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TPE8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4001993613369687</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3812322799938932</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1698503484541148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TPE9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.12275127474282</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1133666633273706</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.04484268335362569</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TPE10</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>-0.7387776145977981</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2908312329553324</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3924020482029374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TPE11</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>-0.7241527278949126</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2816614410776115</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.5980717633001815</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TPE12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1411845858267276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2901078670648326</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.8824638337271046</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TPE13</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>-0.9699720306209091</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1075864842683679</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2121055737099354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>LFC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3826723637383289</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>-0.6895674194354259</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.5292090750826108</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2916127527925724</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03674219905701865</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>LFC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3631538867425454</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>-0.6183228994360819</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.5202214222582433</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.3601571927040432</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2104962187758268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LFC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3572704665581224</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>-0.6962669583576825</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.4679833162993781</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1773972184879163</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2953983545257315</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>LFC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.344761472644989</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>-0.639358515613826</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.5151258012505356</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3179704913541994</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2605839294062165</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>LFC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3413856823352144</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>-0.7128060248831718</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.4725269528487615</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.13507065413776</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.281187256872557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LFC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2667393148515139</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>-0.6542741329442037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1563930941365627</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.5672724068807675</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2620518270402625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LFC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1394071145865949</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>-0.5215034638306596</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3759256325063838</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.6885799534021178</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2220223321063295</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LFC8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.328174900975466</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>-0.7171387675715856</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>-0.6114530422113053</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.05387415169305144</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.0174853183524291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>LFC9</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>-0.9614036283674509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2743901640322102</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.006229562891724378</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01911643900300415</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.001762678627620647</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>LFC10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1305105983871637</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.443227991983757</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05733545069737484</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2661782853617701</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4332456432691135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PC5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PC6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PC7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>OCC1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.8503087033666871</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3335890445547036</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007766396237933073</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.358812656751654</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.07608827268234483</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1249911390020941</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05604964187812633</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.05793326988619366</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>OCC2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.8200065871670982</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1363220301874885</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1055228758851978</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3058831031392476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04923754407574343</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.2002480560575148</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.3800363784392023</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.06470543782202752</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>OCC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2074838975026741</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1151343604692094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001722711287296991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1459973681371249</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.03517403918047128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0328912470224162</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0577432260408562</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1100015314600554</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>OCC4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.5143638118731031</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2651353791331596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06228346635724963</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.5276316699708213</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.132954292705684</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2592472226664821</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.5218969068260499</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.09025347445196866</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>OCC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0284108039983236</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.817225257859478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1237494821346192</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>-0.4630839211399252</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1880177022917866</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1405820997180407</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07432828497629093</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1610599740370064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>OCC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.05567294935432287</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.08159893740951008</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1114294708036905</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01567786093790651</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.009176430867895274</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.039371057030043</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.01380956102959062</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04994149275233534</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>OCC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.08891127507085046</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1508380724203482</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1181628726571073</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.07815979561029461</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04027840514869853</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05698345085230389</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.02916858640466776</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.8218075058982423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>OCC8</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>-0.5122344845072873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1582606455198005</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.7766974300241275</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.05822118242206557</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2038959156065264</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03412131607038519</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.1641723220117368</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.138623060770528</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OCC9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3331311345850337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4351930669311008</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.07251114777536766</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1591599188954635</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.7606284904675026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.08163822002223094</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06902842247204401</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.1667118722960882</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>OCC10</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>-0.6393684465873944</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1300873212930106</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3829413082343771</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.04283257783099415</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1019911031315421</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.5497530556800011</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2794645976820742</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1294967107564982</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>OCC11</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>-0.6466990787516744</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.180447573363135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3580788983756419</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.07209237234092397</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4141203619952816</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.4025047088615846</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1788592668634297</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.1083164610463205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>OCC12</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>-0.5281356032443122</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.05455997080692927</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.06347611028161197</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.006924453086086774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09936501416961559</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02837543965526019</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01083155615776622</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.127579955944436</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>OCC13</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>-0.5282221908278243</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.07229518682923247</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.01715871704919191</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.004903095337937699</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.06995773082668597</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.07285076972210011</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02353186969635311</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0584181998205982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EIC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.009736626704779101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1980194804215786</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.8827441002812284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.0992945547142248</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.371985069578936</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EIC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1242432195004459</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.04606279436293375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1564824061422433</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01717082455240776</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1726471210471292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EIC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.003560969183723694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1787182682660851</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.290872035185498</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.2719558983850807</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.5104494254012938</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EIC4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.9936637764879718</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.006060490385844678</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.07197288656621752</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.044265097150032</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02388812168306639</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>EIC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.01341820919066749</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0397773059346187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01912156926562837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1873195237541194</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1593204972307694</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>EIC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1086606635680384</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.01928998375073765</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.05866314456841543</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1072290461950048</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2564689694379941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EIC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01706189073544659</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.02397041961385498</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1599076262938573</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2337795060153135</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.08170627479361665</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EIC8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1540028313172774</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.9267590834794107</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001104642922238077</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2673090099080498</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1657024026908747</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EIC9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3451782193225976</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.1391392229286254</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>-0.5317149259832495</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.3364005640884938</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2787935243879683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EIC10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1160185775510741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05809206057420811</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.19232074457619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2461345530844297</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07966667836865217</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>EIC11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1868129700455108</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.165722034184435</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05287798341089251</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.1450330550016279</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1079707882512948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>EIC12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2117394721794368</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0267739972987209</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1161241171053646</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1622559779544217</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04199616186648485</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>EIC13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.1845334818872816</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1327564563162829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2349861697131065</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2018904250969436</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.346410738162323</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>EIC14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2456486380580283</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.4019413613590913</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.006173765862055014</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.8161319352868484</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09069464366017538</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>EIC15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3418535488156009</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.2786131135683417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4320905772000623</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.05771189815327215</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2448774895115308</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>EIC16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.258385516337186</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.02736775357974734</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.06306976382209641</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1129553310288741</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4443228019178078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>OEDC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3051554724403652</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.07952985838373493</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2960277246617082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>OEDC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4448018469894237</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4139153605147677</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.7505367541307041</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>OEDC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2914107194220786</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.2809874562393702</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2186417131596822</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>OEDC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.372059713269282</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.8810346171021232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1870734367029175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>OEDC5</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>-0.9963726536687807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01641512310663538</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04088332533129069</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>OEDC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2542494772528301</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1828013096643689</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4170413057118266</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>OEDC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1401472595260894</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2289386891695781</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04294158961238503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EC1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.82087678088633</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1891300343843683</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06951247392695592</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3202243139483367</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.3060578020489955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EC2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.6560202266691006</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.03167199311396576</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.5342483825582048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1876452837038307</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2881298427540979</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EC3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>-0.7493066945094603</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.004546381162522492</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2036573267936639</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04092406907778024</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1679389469178803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EC4</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>-0.6892891768104346</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1827740610594467</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>-0.4667497453951191</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>-0.4710522530518508</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1642851332089108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>EC5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.4631091865507289</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.267770799241868</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3975821495938634</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0107911659443611</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.5061751000494236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>EC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3680779255734851</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4436840719164834</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>-0.5114856039909109</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.5385811214792806</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3347837347257968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EC7</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.9259514125335208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.05168145741544804</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1261875837323564</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.1199742323111438</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.03832461582407215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EC8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.8087789515378366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1371592180758753</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2697460958915855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1562322282005651</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.09674639080792487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SEC1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4199726384466409</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.05228921604626847</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05658309201114674</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.06462549752532079</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.09797945201979627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SEC2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.02234897254793888</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.8642066361812656</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3054139335163661</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01668661647983125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1439221723813857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SEC3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2556854589983313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3364071046772577</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01277930933338512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.1082845938162285</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03450930232039628</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SEC4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2368826899297929</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.8507839924353739</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2958222887284258</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1029711579868941</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07640488737719239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SEC5</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.4577206542761987</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1078670482243296</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1203260554901597</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1201396652391538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03639743965230453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AFC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1951154158759207</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1423742575334649</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3649249613088092</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1175028123487738</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4477408330617934</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AFC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2068410177725934</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1243324237754346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3829423694150204</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1188036077818595</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.4581843758679727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AFC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1495942636232467</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1214648678742437</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2797600911252843</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.09232014347196899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3453922700298121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AFC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2937488905077996</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>-0.6108087489804975</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.6767825892512749</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.03272266260638369</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.182269735843718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AFC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3889609448735381</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>-0.6250923604096826</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.6287080867024638</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.02670420721545546</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.2329007095004524</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AFC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.01899698578272798</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.05669212027576209</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.4876586089406976</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1388984900333636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2811534334162933</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>VC1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>-0.7574797076925252</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>-0.5659903106576435</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1205783362868566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2263700307787109</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1866959153759906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>VC2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1515174782177479</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2452768310939329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.11772785449391</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.8872362445866917</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3260512951112037</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>VC3</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.950815686564996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.09648343255875709</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.07986733514816743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.2110235806165838</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1803914643702974</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VC4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4103303690767264</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.5802651138724048</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.5900556332993641</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2131310509327684</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2127445820334185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ETH1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.9686269224202355</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1099984521358738</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04583991023214518</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1959571169376917</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ETH2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.8855363808819245</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3462302791052101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.117507513169223</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2613648329545859</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ETH3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05771329148928045</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05596350758794821</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02261253523757536</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1662918106650689</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ETH4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2134270545881343</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2590521836451022</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01191896628342911</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.7651532909755484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ETH5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2446037095108833</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.9291881188333582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007299565775368323</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.2213283426266286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ETH6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05045508048434887</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09652294427461561</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.08175062290966469</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2650586433463571</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ETH7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1212829006016844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1147428677080453</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03940914157024564</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.5562612624645795</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ETH8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1342791709599024</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1546739355356654</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03686907996693322</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.5391629380582178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ETH9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1880904000349903</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2323644703450074</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01080735750290012</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.528350621308968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ETH10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09575356888489943</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1303952127770711</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01423434449687553</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3905346906006494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ETH11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1209429138867699</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1661568204661212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.0179165605186301</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.271988900400002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ETH12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.08455320378474056</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05450770815159151</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02578960753579073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3735649891128857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ETH13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2329169964507904</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.9049888299573692</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.004252908325745923</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.2280475139786401</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ETH14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1034765184016842</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1625074478573169</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.004670356447239185</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002732894663140437</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ETH15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01196143928509288</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1732806401165586</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01291893182894647</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.1334870833453921</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ETH16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.169330514407431</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.5375926424699818</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.006457103906783683</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0108089379301736</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>ETHC1</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>-0.6301176211007463</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05168525974927049</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>-0.5125617133136042</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1365816054452317</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>ETHC2</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>-0.8383803782418151</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.05255548756553328</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-0.4738563229203125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.07455687217923912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ETHC3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.3079091422248487</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1541392953990761</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0.9202199978128389</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.1685274611338339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ETHC4</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.8481159195891398</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3301267502306041</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.1229852108157806</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.2637064300933048</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ETHC5</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.8785498631843532</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3396295322672006</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.1253217462533984</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2536910410886504</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ETHC6</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0.7214010544771301</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.3035162264088384</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.04884568090870064</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.2116121457118323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ANC1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.06399476617890151</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.03916468805759149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.002350899943190864</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01701005908725009</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ANC2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06331414706160314</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.238622400582225</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3669580854703778</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.1910673919338963</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ANC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.02025503726267982</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.0825081965237317</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1050106324610785</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3030686595931048</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ANC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2843612214807243</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>-0.6962655110940734</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.652520616950003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05589074341619259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ANC5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.09165469482673939</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.068952108845948</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05909680372527441</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1703467135175327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ANC6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1723462366615058</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01332331160705086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07516590597348662</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3247683764299761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ANC7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.09266902098646952</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1468111704454598</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3150866918384682</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.04393915350005412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ANC8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2797237041913246</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04812523043628117</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05839373406519183</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.6717901005072503</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ANC9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0473487284992127</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.1775323852166159</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1481574110001361</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1828035404171135</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ANC10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.02909678025805491</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06478721707188054</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1548355311723784</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4023459639991698</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ANC11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06046866468324077</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1156323111307869</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02831156784594064</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03232624690477339</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ANC12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2710971768200979</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.09069158459970635</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09458460706245259</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1822461949817544</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ANC13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1285844452689519</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1359040349447419</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.1568564429146025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.00274105835194834</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ANC14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03258589680745077</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2102595723219122</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1175476831196067</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.5772418660806652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ANC15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.07707123049471155</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03951617961516111</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05301113180566906</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1500989601577971</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>POBC1</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.4850880479869403</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.7012472453999737</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0.5094556553985964</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.03329188000198244</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>POBC2</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>-0.9944881927130693</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1018707528448635</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01899474271203966</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01007823237518083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>LSC1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.9756751833033783</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2067854987852466</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>LSC2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.8762295414015472</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>-0.4716838960093807</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LSC3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3544241595976957</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.4984559720214227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>LSC4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2062380340541026</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.4929563736450721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>VOC1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.782508858073232</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>-0.6044080559098833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VOC2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.9850897855345309</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08132043646439488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VOC3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>-0.836330306806461</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4155030535309155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -475,16 +4579,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3551707877185219</v>
+        <v>-0.3551707874083855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3309290034432869</v>
+        <v>0.330928996514035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1357936041306777</v>
+        <v>0.1357936247396201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06559983336852679</v>
+        <v>0.06559982490161674</v>
       </c>
     </row>
     <row r="3">
@@ -493,17 +4597,17 @@
           <t>HC2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>-0.8363621319867472</v>
+      <c r="B3" s="3" t="n">
+        <v>-0.8363621325835311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3374123827944999</v>
+        <v>0.3374123943684943</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08660961873298782</v>
+        <v>-0.08660975465453542</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1458699341423294</v>
+        <v>-0.1458635599155006</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +4617,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3631528500888902</v>
+        <v>0.3631528504081009</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2068930501714083</v>
+        <v>-0.2068930421590732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1286105224588112</v>
+        <v>0.1286105024607396</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3494029857183761</v>
+        <v>-0.3493916568444964</v>
       </c>
     </row>
     <row r="5">
@@ -531,17 +4635,17 @@
           <t>HC4</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>0.5982532276116911</v>
+      <c r="B5" s="2" t="n">
+        <v>0.5982532277868335</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3170466347861214</v>
+        <v>-0.3170466323222583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1526129889600649</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-0.4792115317368918</v>
+        <v>0.1526129823516871</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>-0.4792067793174185</v>
       </c>
     </row>
     <row r="6">
@@ -550,17 +4654,17 @@
           <t>HC5</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0.7236782496885217</v>
+      <c r="B6" s="2" t="n">
+        <v>0.7236782494871256</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3495330837594584</v>
+        <v>-0.3495330854086991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1232410614585505</v>
+        <v>0.1232410414651397</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4228928228177335</v>
+        <v>-0.4228956218465693</v>
       </c>
     </row>
     <row r="7">
@@ -569,17 +4673,17 @@
           <t>HC6</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>0.8681419014628066</v>
+      <c r="B7" s="2" t="n">
+        <v>0.8681419014519313</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3625633479101736</v>
+        <v>-0.3625633459594442</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1529629989619011</v>
+        <v>0.1529629920629785</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.09256078494914327</v>
+        <v>-0.09255942009708906</v>
       </c>
     </row>
     <row r="8">
@@ -588,17 +4692,17 @@
           <t>HC7</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>0.8412784600578528</v>
+      <c r="B8" s="2" t="n">
+        <v>0.8412784599946566</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4054813253990132</v>
+        <v>-0.40548132427684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1732714936826199</v>
+        <v>0.1732714810006178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1593920402211718</v>
+        <v>0.1593925619774168</v>
       </c>
     </row>
     <row r="9">
@@ -607,17 +4711,17 @@
           <t>HC8</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>-0.8536099418651647</v>
+      <c r="B9" s="3" t="n">
+        <v>-0.8536099416720641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3557052491784235</v>
+        <v>0.3557052458269351</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1466514850078401</v>
+        <v>-0.1466514410529047</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3036612934473726</v>
+        <v>-0.303663159590501</v>
       </c>
     </row>
     <row r="10">
@@ -627,16 +4731,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1279971896723688</v>
+        <v>0.1279971917510838</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3287583205153982</v>
+        <v>-0.3287583727878836</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08109173442830026</v>
+        <v>-0.08109126724103694</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03077324603900185</v>
+        <v>-0.03080404118887101</v>
       </c>
     </row>
     <row r="11">
@@ -646,16 +4750,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1016489218453303</v>
+        <v>0.1016489233191031</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3001663144061094</v>
+        <v>-0.3001663533871556</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1735056745115924</v>
+        <v>-0.1735053182009238</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01385949497697186</v>
+        <v>0.01383478083727244</v>
       </c>
     </row>
     <row r="12">
@@ -664,17 +4768,17 @@
           <t>HC11</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>-0.6645729380611824</v>
+      <c r="B12" s="3" t="n">
+        <v>-0.6645729380742329</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4003742230803783</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0.6056717646415741</v>
+        <v>-0.4003742228715002</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.6056717616868124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02293372872521047</v>
+        <v>0.02293386919468089</v>
       </c>
     </row>
     <row r="13">
@@ -684,16 +4788,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3538859610292637</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0.5401543599966409</v>
+        <v>0.3538859608486661</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.5401543612919764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09532350644066918</v>
+        <v>0.09532346608631589</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05085403075275857</v>
+        <v>-0.05085360341128128</v>
       </c>
     </row>
     <row r="14">
@@ -702,17 +4806,17 @@
           <t>HC13</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>0.5392787672776458</v>
+      <c r="B14" s="2" t="n">
+        <v>0.5392787671859175</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1344584550318532</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>-0.7725490171161434</v>
+        <v>-0.1344584528773287</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>-0.7725490433491629</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09557580245743912</v>
+        <v>-0.0955741049213861</v>
       </c>
     </row>
     <row r="15">
@@ -722,16 +4826,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09051741910533918</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>0.4567289014671995</v>
+        <v>0.09051741964061966</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.4567288880266472</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09181403596497972</v>
+        <v>-0.0918138164613196</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1166369662647889</v>
+        <v>-0.116652503132483</v>
       </c>
     </row>
     <row r="16">
@@ -741,16 +4845,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0503814551674826</v>
+        <v>0.05038145518746028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01109749164325089</v>
+        <v>0.01109749110729668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02414177737155424</v>
+        <v>0.02414178092125967</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01052979089643791</v>
+        <v>-0.01052994526628885</v>
       </c>
     </row>
     <row r="17">
@@ -760,16 +4864,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3030622290613279</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>0.5150708967140337</v>
+        <v>0.303062229291671</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.5150708972162836</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04953772288004056</v>
+        <v>0.04953771022466111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00383473922350856</v>
+        <v>0.003840652277782062</v>
       </c>
     </row>
     <row r="18">
@@ -779,16 +4883,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4383581120574978</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>-0.7949317698723992</v>
+        <v>-0.4383581119818976</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>-0.7949317714688827</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2773459930551087</v>
+        <v>-0.2773459707487876</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01783945222799679</v>
+        <v>0.01783816513522879</v>
       </c>
     </row>
     <row r="19">
@@ -798,16 +4902,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4418549363916233</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>0.7458257346070263</v>
+        <v>0.4418549364123911</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.7458257342062338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3022783298630586</v>
+        <v>0.3022783365706914</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1517055601469121</v>
+        <v>-0.1517059157047307</v>
       </c>
     </row>
     <row r="20">
@@ -816,17 +4920,17 @@
           <t>HC19</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>-0.5615247317024128</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>-0.7266349445766809</v>
+      <c r="B20" s="3" t="n">
+        <v>-0.5615247317552984</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>-0.7266349432140929</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1595031427555744</v>
+        <v>-0.1595031589825768</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0380348161828063</v>
+        <v>-0.03803370667488667</v>
       </c>
     </row>
     <row r="21">
@@ -836,16 +4940,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05246358148975782</v>
+        <v>-0.05246358110860033</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2585143873971739</v>
+        <v>-0.2585143947343317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02404567030741708</v>
+        <v>0.02404577349041811</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3972405604945621</v>
+        <v>-0.3972458147134024</v>
       </c>
     </row>
     <row r="22">
@@ -855,16 +4959,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02025283344380414</v>
+        <v>-0.02025283280623025</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.324775855075716</v>
+        <v>-0.3247758682956243</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09143394919738279</v>
+        <v>0.09143411306515069</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4007476183357435</v>
+        <v>-0.4007564662380303</v>
       </c>
     </row>
     <row r="23">
@@ -874,16 +4978,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1036429669523971</v>
+        <v>0.1036429668258427</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3460332287094098</v>
+        <v>-0.3460332251376033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2293953079952398</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>-0.4734394164381361</v>
+        <v>0.2293952815103602</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>-0.4734373743858231</v>
       </c>
     </row>
     <row r="24">
@@ -893,16 +4997,1567 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05189572145782319</v>
+        <v>0.05189572132963132</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2434436026650348</v>
+        <v>-0.2434436004977852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2065400855744932</v>
+        <v>0.2065400507524351</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4139271711632105</v>
+        <v>-0.4139255855428615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AGE901</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.9570369921655745</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.04661145441616348</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.04993319904751611</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.07079894607549796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AGE902</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.9682735503094462</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1531833345065447</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1133917708911634</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.06574275757149549</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AGE903</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.9652230661628486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1080150274551901</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1254070264003146</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0942139329487847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AGE904</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.9734949352841586</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1113992916176185</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1092219368597696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04028786310339352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AGE905</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.9519340597734576</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1549097347852657</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.2263913559989638</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01190963492933148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AGE906</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.9297111736652686</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1405076065220004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2309695628114919</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.171152844103699</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AGE907</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>-0.4906390543120774</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>-0.7229394110412084</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3257123277274773</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01519738719794132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CHIL1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1003907435617818</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4077786237597822</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>-0.8603021615083547</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1327468734831125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CHIL2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1469227551301322</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>-0.7964331102055119</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.2092765125396076</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.00465396161079243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CHIL3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3666201393583589</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4095821118699474</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3702462413531892</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.5744311465186278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AGEC1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.4345660907130502</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1257382410364158</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.08493359854916684</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.7320614350159896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AGEC2</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>-0.6458643209186182</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1149328557977073</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-0.5873367665332929</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1389524866652795</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AGEC3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.4317121871726642</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>-0.5928934921607496</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2214245236361902</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.09952726353821043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AGEC4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0212316835585909</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>-0.6695252659948087</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1293369309462299</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001724473466647017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AGEC5</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.6497421655528477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.2648100843404603</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1243820391573735</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.08530694504192719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AGEC6</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.8694881967777525</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1302860767964524</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03677744078243828</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.120828508348749</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AGEC7</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>0.7742893838046153</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.273245417463362</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.0503625179303071</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.03422894027964831</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CHILC1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.09154412930733451</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.5079464724123578</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-0.7080383217784977</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07744105234769356</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CHILC2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.09009957034798877</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1241248685252873</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>-0.7492499410790638</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.0477163841498306</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CHILC3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05375915508622477</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>-0.6685172477756578</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.4486965245610042</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1707551746884978</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CHILC4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2471366901585802</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>-0.7027559902356054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1233255044730152</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1239101250268255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CHILC5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2890257546875893</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.06533627532042945</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3571115605367096</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0.7967210977940861</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AC1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3105291787435638</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2905110883490566</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1030025652662456</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.02169232474434089</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AC2</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0.5537253303468163</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.09307060069614544</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.06689599761445307</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.09623158238288403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HHN1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.8114596397285061</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>-0.4959024518626869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HHN2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.4104018607851251</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.7863136159310862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HHN3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.9861519617301655</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.0358045742630573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HHN4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.9824294282034414</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.121975154726582</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HHN5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.8498995517473376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2923594940167308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HHN6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.6503865580242271</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3616083660934847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HHP1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.9664982593567507</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02367476905818531</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>HHP2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.9480850553196408</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0001311012801998101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MARR1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.976830575872434</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1404532809601791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.1512559206216797</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MARR2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.6056089357589836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08560176732095529</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05814863888184655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MARR3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2270221898448777</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.8621846078741348</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>-0.452726837301456</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MARR4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.7859869149355366</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>-0.5217526927847863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.331537069047734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>DW1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.9227188995674301</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3476936002113777</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02532408662651161</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>DW2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.9215120617144931</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3599449978629577</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.003263477536258469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>DW3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2095999081189884</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.104242823333105</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.924523708690197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DW4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.9459053297380816</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2715273480966019</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1763631642823364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DW5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.9467664061038376</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3105886743016919</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0327465617321378</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DW6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.9173268797778814</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.3395026727695596</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.1791480659515985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DW7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1536512982610893</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01348111959126975</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1019840174035502</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DW8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1043288952626597</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.005739839453247084</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07942182525176596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HV1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.8995547134648803</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3191132639600412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HV2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.9176172898348069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.30200107725411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HV3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.8254000576314604</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.01053312265065657</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HV4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.8242200904290479</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.04063373574870975</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HVP1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.8469365770619502</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.4920799779968644</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HVP2</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.9247966801892781</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3202578577158294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HVP3</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.963889437888484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.03544488269045923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>HVP4</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.9207592230192959</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3488131340399018</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>HVP5</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.7542827038165051</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>-0.5606898888262384</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HVP6</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.687049733307199</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.5564530963173604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HU1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.9493586251850377</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1674700311921687</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.06175481145679042</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.1183476609432681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HU2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.9145911913236371</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2328878243578293</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1783096215752715</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07952594874430576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HU3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2432180659777569</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>-0.6929224708038216</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.003270268751920572</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1391102366385827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HU4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.169284673952726</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.7468820554167224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2442554180344041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08745857451591095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HU5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.08641918904286544</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.8786245382781697</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4177612721738492</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06983488481612937</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HUR1</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.6771831748275497</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04310731890499529</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1134553243650045</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.230505802819228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HUR2</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>-0.8592152641978383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3532107887871904</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2922913574233065</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03520389131259988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RHP1</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>-0.8006428574347811</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.338868366120464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3601651391407138</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03475005384269794</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RHP2</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>-0.8522579420813053</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3136941687912546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2987540627720419</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04292558716591994</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RHP3</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>-0.4940665005243647</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2360060532572573</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0259080638068245</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04284874478865917</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RHP4</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1894707533803157</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.316518937700644</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.2310188629902055</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.0541628045739429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>HUPA1</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.6169972902303514</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2362020415197507</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.137982824994737</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.5733824812234752</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>HUPA2</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.7079732362326705</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1068293252134253</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3713658895590239</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>-0.5616092946848859</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>HUPA3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.08068807636720489</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.5582011879467381</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>-0.5481813749285898</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.14648503961382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HHD1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>-0.8157616787027783</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.5568418615766918</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HHD2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>-0.9710980003126949</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01649136280672125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HHD3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>-0.9210592575045043</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.339723132553879</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HHD4</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>-0.8857963600872827</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2358613644093537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HHD5</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>-0.9070319034130282</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.03497571318095825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>HHD6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.8530742339804253</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06380341399254788</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HHD7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.007587498987628754</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.8338864047017482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>HHD8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.139900805851529</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.5946207930100905</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>HHD9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02524175561761297</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.8027757047989049</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HHD10</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.7159722549394653</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.236709073536471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>HHD11</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.7999010261452095</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.03641757394777895</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>HHD12</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.5504896544426913</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.17898346070617</v>
       </c>
     </row>
   </sheetData>
